--- a/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile2.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile2.xlsx
@@ -56,10 +56,10 @@
     <t>*交车时间</t>
   </si>
   <si>
-    <t>A30827</t>
-  </si>
-  <si>
-    <t>2020/04/19 14:47:12</t>
+    <t>A72693</t>
+  </si>
+  <si>
+    <t>2020/10/21 19:18:47</t>
   </si>
   <si>
     <t>2</t>
@@ -68,10 +68,10 @@
     <t>保养</t>
   </si>
   <si>
-    <t>京QWER123</t>
-  </si>
-  <si>
-    <t>ASDAAAAAAA1268273</t>
+    <t>京AS6257</t>
+  </si>
+  <si>
+    <t>ASDAAAAAAA1232186</t>
   </si>
   <si>
     <t>夏流失客户</t>
@@ -80,7 +80,7 @@
     <t>女</t>
   </si>
   <si>
-    <t>15137286013</t>
+    <t>15037286013</t>
   </si>
   <si>
     <t>自动化专用账号</t>

--- a/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile2.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile2.xlsx
@@ -56,10 +56,10 @@
     <t>*交车时间</t>
   </si>
   <si>
-    <t>A72693</t>
-  </si>
-  <si>
-    <t>2020/10/21 19:18:47</t>
+    <t>A78819</t>
+  </si>
+  <si>
+    <t>2020/10/27 20:00:48</t>
   </si>
   <si>
     <t>2</t>
@@ -68,13 +68,13 @@
     <t>保养</t>
   </si>
   <si>
-    <t>京AS6257</t>
-  </si>
-  <si>
-    <t>ASDAAAAAAA1232186</t>
-  </si>
-  <si>
-    <t>夏流失客户</t>
+    <t>京AS6194</t>
+  </si>
+  <si>
+    <t>ASDAAAAAAA1285807</t>
+  </si>
+  <si>
+    <t>夏明凤</t>
   </si>
   <si>
     <t>女</t>
@@ -83,7 +83,7 @@
     <t>15037286013</t>
   </si>
   <si>
-    <t>自动化专用账号</t>
+    <t>接待顾问x</t>
   </si>
   <si>
     <t>2001</t>

--- a/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile2.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile2.xlsx
@@ -56,10 +56,10 @@
     <t>*交车时间</t>
   </si>
   <si>
-    <t>A78819</t>
-  </si>
-  <si>
-    <t>2020/10/27 20:00:48</t>
+    <t>A83932</t>
+  </si>
+  <si>
+    <t>2020/05/11 14:26:14</t>
   </si>
   <si>
     <t>2</t>
@@ -68,10 +68,10 @@
     <t>保养</t>
   </si>
   <si>
-    <t>京AS6194</t>
-  </si>
-  <si>
-    <t>ASDAAAAAAA1285807</t>
+    <t>京AS3377</t>
+  </si>
+  <si>
+    <t>ASDAAAAAAA1286062</t>
   </si>
   <si>
     <t>夏明凤</t>
@@ -80,10 +80,10 @@
     <t>女</t>
   </si>
   <si>
-    <t>15037286013</t>
-  </si>
-  <si>
-    <t>接待顾问x</t>
+    <t>15037289013</t>
+  </si>
+  <si>
+    <t>自动化专用账号</t>
   </si>
   <si>
     <t>2001</t>

--- a/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile2.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile2.xlsx
@@ -56,10 +56,10 @@
     <t>*交车时间</t>
   </si>
   <si>
-    <t>A83932</t>
-  </si>
-  <si>
-    <t>2020/05/11 14:26:14</t>
+    <t>A34370</t>
+  </si>
+  <si>
+    <t>2020/05/16 13:57:08</t>
   </si>
   <si>
     <t>2</t>
@@ -68,13 +68,13 @@
     <t>保养</t>
   </si>
   <si>
-    <t>京AS3377</t>
-  </si>
-  <si>
-    <t>ASDAAAAAAA1286062</t>
-  </si>
-  <si>
-    <t>夏明凤</t>
+    <t>京AS4143</t>
+  </si>
+  <si>
+    <t>ASDAAAAAAA1212305</t>
+  </si>
+  <si>
+    <t>流失客户</t>
   </si>
   <si>
     <t>女</t>
@@ -86,7 +86,7 @@
     <t>自动化专用账号</t>
   </si>
   <si>
-    <t>2001</t>
+    <t>500</t>
   </si>
   <si>
     <t>2000</t>

--- a/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile2.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile2.xlsx
@@ -56,10 +56,10 @@
     <t>*交车时间</t>
   </si>
   <si>
-    <t>A34370</t>
-  </si>
-  <si>
-    <t>2020/05/16 13:57:08</t>
+    <t>A13194</t>
+  </si>
+  <si>
+    <t>2020/05/23 16:01:40</t>
   </si>
   <si>
     <t>2</t>
@@ -68,10 +68,10 @@
     <t>保养</t>
   </si>
   <si>
-    <t>京AS4143</t>
-  </si>
-  <si>
-    <t>ASDAAAAAAA1212305</t>
+    <t>京AS1614</t>
+  </si>
+  <si>
+    <t>ASDAAAAAAA1280665</t>
   </si>
   <si>
     <t>流失客户</t>
@@ -80,7 +80,7 @@
     <t>女</t>
   </si>
   <si>
-    <t>15037289013</t>
+    <t>15037289114</t>
   </si>
   <si>
     <t>自动化专用账号</t>

--- a/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile2.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile2.xlsx
@@ -56,10 +56,10 @@
     <t>*交车时间</t>
   </si>
   <si>
-    <t>A13194</t>
-  </si>
-  <si>
-    <t>2020/05/23 16:01:40</t>
+    <t>A72735</t>
+  </si>
+  <si>
+    <t>2020/11/25 19:33:38</t>
   </si>
   <si>
     <t>2</t>
@@ -68,10 +68,10 @@
     <t>保养</t>
   </si>
   <si>
-    <t>京AS1614</t>
-  </si>
-  <si>
-    <t>ASDAAAAAAA1280665</t>
+    <t>京AS8970</t>
+  </si>
+  <si>
+    <t>ASDAAAAAAA1220064</t>
   </si>
   <si>
     <t>流失客户</t>
@@ -80,13 +80,13 @@
     <t>女</t>
   </si>
   <si>
-    <t>15037289114</t>
-  </si>
-  <si>
-    <t>自动化专用账号</t>
-  </si>
-  <si>
-    <t>500</t>
+    <t>17772430577</t>
+  </si>
+  <si>
+    <t>接待顾问x</t>
+  </si>
+  <si>
+    <t>2001</t>
   </si>
   <si>
     <t>2000</t>

--- a/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile2.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile2.xlsx
@@ -56,10 +56,10 @@
     <t>*交车时间</t>
   </si>
   <si>
-    <t>A72735</t>
-  </si>
-  <si>
-    <t>2020/11/25 19:33:38</t>
+    <t>A32470</t>
+  </si>
+  <si>
+    <t>2020/05/30 14:24:21</t>
   </si>
   <si>
     <t>2</t>
@@ -68,10 +68,10 @@
     <t>保养</t>
   </si>
   <si>
-    <t>京AS8970</t>
-  </si>
-  <si>
-    <t>ASDAAAAAAA1220064</t>
+    <t>京AS6425</t>
+  </si>
+  <si>
+    <t>ASDAAAAAAA1226039</t>
   </si>
   <si>
     <t>流失客户</t>
@@ -80,13 +80,13 @@
     <t>女</t>
   </si>
   <si>
-    <t>17772430577</t>
-  </si>
-  <si>
-    <t>接待顾问x</t>
-  </si>
-  <si>
-    <t>2001</t>
+    <t>15037289114</t>
+  </si>
+  <si>
+    <t>自动化专用账号</t>
+  </si>
+  <si>
+    <t>500</t>
   </si>
   <si>
     <t>2000</t>

--- a/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile2.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile2.xlsx
@@ -56,10 +56,10 @@
     <t>*交车时间</t>
   </si>
   <si>
-    <t>A32470</t>
-  </si>
-  <si>
-    <t>2020/05/30 14:24:21</t>
+    <t>A63594</t>
+  </si>
+  <si>
+    <t>2020/08/08 14:22:54</t>
   </si>
   <si>
     <t>2</t>
@@ -68,10 +68,10 @@
     <t>保养</t>
   </si>
   <si>
-    <t>京AS6425</t>
-  </si>
-  <si>
-    <t>ASDAAAAAAA1226039</t>
+    <t>京AS8980</t>
+  </si>
+  <si>
+    <t>ASDAAAAAAA1281087</t>
   </si>
   <si>
     <t>流失客户</t>

--- a/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile2.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/xmf/file/importfile2.xlsx
@@ -56,10 +56,10 @@
     <t>*交车时间</t>
   </si>
   <si>
-    <t>A63594</t>
-  </si>
-  <si>
-    <t>2020/08/08 14:22:54</t>
+    <t>A2877</t>
+  </si>
+  <si>
+    <t>2021/02/20 18:16:41</t>
   </si>
   <si>
     <t>2</t>
@@ -68,10 +68,10 @@
     <t>保养</t>
   </si>
   <si>
-    <t>京AS8980</t>
-  </si>
-  <si>
-    <t>ASDAAAAAAA1281087</t>
+    <t>京AS1775</t>
+  </si>
+  <si>
+    <t>ASDAAAAAAA1286639</t>
   </si>
   <si>
     <t>流失客户</t>
@@ -80,13 +80,13 @@
     <t>女</t>
   </si>
   <si>
-    <t>15037289114</t>
-  </si>
-  <si>
-    <t>自动化专用账号</t>
-  </si>
-  <si>
-    <t>500</t>
+    <t>17716110568</t>
+  </si>
+  <si>
+    <t>接待顾问x</t>
+  </si>
+  <si>
+    <t>2001</t>
   </si>
   <si>
     <t>2000</t>
